--- a/Code/Results/Cases/Case_8_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012188521722292</v>
+        <v>1.009713743435407</v>
       </c>
       <c r="D2">
-        <v>1.029720809644259</v>
+        <v>1.027267257566765</v>
       </c>
       <c r="E2">
-        <v>1.016957550962879</v>
+        <v>1.014835660160034</v>
       </c>
       <c r="F2">
-        <v>1.030981399209061</v>
+        <v>1.029820167115367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051653588380784</v>
+        <v>1.050118714290095</v>
       </c>
       <c r="J2">
-        <v>1.034010688935071</v>
+        <v>1.031607749639347</v>
       </c>
       <c r="K2">
-        <v>1.04078105066822</v>
+        <v>1.038359349730801</v>
       </c>
       <c r="L2">
-        <v>1.028185589040611</v>
+        <v>1.026092108562352</v>
       </c>
       <c r="M2">
-        <v>1.04202534946003</v>
+        <v>1.040879122317259</v>
       </c>
       <c r="N2">
-        <v>1.03547910271605</v>
+        <v>1.027319391520288</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041832634471913</v>
+        <v>1.040925473645118</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039906015854443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038202430602258</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022249931398359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015715439738127</v>
+        <v>1.0129619522727</v>
       </c>
       <c r="D3">
-        <v>1.032060968692679</v>
+        <v>1.029328001511477</v>
       </c>
       <c r="E3">
-        <v>1.019717663217546</v>
+        <v>1.017350559129498</v>
       </c>
       <c r="F3">
-        <v>1.033641715622366</v>
+        <v>1.032351052564835</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052630267698833</v>
+        <v>1.050919000826095</v>
       </c>
       <c r="J3">
-        <v>1.035786665048851</v>
+        <v>1.033105391832662</v>
       </c>
       <c r="K3">
-        <v>1.042299421517065</v>
+        <v>1.039598888572817</v>
       </c>
       <c r="L3">
-        <v>1.030104318995828</v>
+        <v>1.027766147120799</v>
       </c>
       <c r="M3">
-        <v>1.043861505443668</v>
+        <v>1.042586075226341</v>
       </c>
       <c r="N3">
-        <v>1.037257600919611</v>
+        <v>1.028159080004949</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043285824686851</v>
+        <v>1.042276410366008</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04097697167507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039075951491349</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022484238989973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017958748338733</v>
+        <v>1.015029590467919</v>
       </c>
       <c r="D4">
-        <v>1.033552954115387</v>
+        <v>1.030643218819668</v>
       </c>
       <c r="E4">
-        <v>1.02147877087924</v>
+        <v>1.018956917776217</v>
       </c>
       <c r="F4">
-        <v>1.035340356836059</v>
+        <v>1.033968138690966</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053242487060328</v>
+        <v>1.051419455630161</v>
       </c>
       <c r="J4">
-        <v>1.036913962387101</v>
+        <v>1.034056497768039</v>
       </c>
       <c r="K4">
-        <v>1.043262611819297</v>
+        <v>1.040385356137999</v>
       </c>
       <c r="L4">
-        <v>1.031324697261301</v>
+        <v>1.028831809064442</v>
       </c>
       <c r="M4">
-        <v>1.045030174153096</v>
+        <v>1.043673180272721</v>
       </c>
       <c r="N4">
-        <v>1.038386499149385</v>
+        <v>1.028692337138152</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044210743469954</v>
+        <v>1.043136778498765</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041658920606416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039633028544172</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022630556202156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01889593549192</v>
+        <v>1.015893569013409</v>
       </c>
       <c r="D5">
-        <v>1.034179192832434</v>
+        <v>1.031195752224236</v>
       </c>
       <c r="E5">
-        <v>1.022216236148776</v>
+        <v>1.019629842914047</v>
       </c>
       <c r="F5">
-        <v>1.036050653629869</v>
+        <v>1.034644460419381</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053497533441124</v>
+        <v>1.051627834960713</v>
       </c>
       <c r="J5">
-        <v>1.037385823366778</v>
+        <v>1.034454775051563</v>
       </c>
       <c r="K5">
-        <v>1.043667178822151</v>
+        <v>1.040716166242853</v>
       </c>
       <c r="L5">
-        <v>1.031835656562039</v>
+        <v>1.029278178603405</v>
       </c>
       <c r="M5">
-        <v>1.045518414940984</v>
+        <v>1.044127409931137</v>
       </c>
       <c r="N5">
-        <v>1.038859030225776</v>
+        <v>1.028915638837101</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044597151239941</v>
+        <v>1.04349626942066</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041952133801276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039874813680962</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022692068269494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019056595629056</v>
+        <v>1.016041477184744</v>
       </c>
       <c r="D6">
-        <v>1.034289164845265</v>
+        <v>1.031293007670535</v>
       </c>
       <c r="E6">
-        <v>1.022343251556205</v>
+        <v>1.019745601215112</v>
       </c>
       <c r="F6">
-        <v>1.036171436618017</v>
+        <v>1.034759333065666</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053542918881427</v>
+        <v>1.051665136337553</v>
       </c>
       <c r="J6">
-        <v>1.037468489384447</v>
+        <v>1.034524628483987</v>
       </c>
       <c r="K6">
-        <v>1.043739915183612</v>
+        <v>1.040776177077428</v>
       </c>
       <c r="L6">
-        <v>1.031924650383144</v>
+        <v>1.029355908187545</v>
       </c>
       <c r="M6">
-        <v>1.045601937870558</v>
+        <v>1.044205016972271</v>
       </c>
       <c r="N6">
-        <v>1.038941813638672</v>
+        <v>1.028954803446087</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044663253662711</v>
+        <v>1.043557689933799</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042012285539812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039926851300869</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022703846715133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017981587330152</v>
+        <v>1.015068445914793</v>
       </c>
       <c r="D7">
-        <v>1.033575080203538</v>
+        <v>1.030676674412838</v>
       </c>
       <c r="E7">
-        <v>1.021498137490058</v>
+        <v>1.018991024568406</v>
       </c>
       <c r="F7">
-        <v>1.035354779608592</v>
+        <v>1.033989823329841</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053253507790751</v>
+        <v>1.051438788981008</v>
       </c>
       <c r="J7">
-        <v>1.036930317862609</v>
+        <v>1.034088445879922</v>
       </c>
       <c r="K7">
-        <v>1.043281620509694</v>
+        <v>1.040415554943399</v>
       </c>
       <c r="L7">
-        <v>1.031340925363971</v>
+        <v>1.028862596559037</v>
       </c>
       <c r="M7">
-        <v>1.045041572473003</v>
+        <v>1.04369175419826</v>
       </c>
       <c r="N7">
-        <v>1.038402877851544</v>
+        <v>1.028762352532675</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044219764429741</v>
+        <v>1.043151478461817</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041692421275473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039676473672049</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022639930339973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01340147406127</v>
+        <v>1.010886874076065</v>
       </c>
       <c r="D8">
-        <v>1.030533323118063</v>
+        <v>1.028024738067268</v>
       </c>
       <c r="E8">
-        <v>1.017907449398223</v>
+        <v>1.015752766493509</v>
       </c>
       <c r="F8">
-        <v>1.031891362487074</v>
+        <v>1.030711086520087</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051997174006068</v>
+        <v>1.050431284923725</v>
       </c>
       <c r="J8">
-        <v>1.034627943716558</v>
+        <v>1.032183916606249</v>
       </c>
       <c r="K8">
-        <v>1.041314994236413</v>
+        <v>1.038838019454271</v>
       </c>
       <c r="L8">
-        <v>1.028850195624603</v>
+        <v>1.026723501988192</v>
       </c>
       <c r="M8">
-        <v>1.042656001119529</v>
+        <v>1.041490524951779</v>
       </c>
       <c r="N8">
-        <v>1.036097234070119</v>
+        <v>1.027800363210316</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042331751884011</v>
+        <v>1.041409357389488</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040306416193555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038566049596842</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02234924229247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005004773853949</v>
+        <v>1.003174759478622</v>
       </c>
       <c r="D9">
-        <v>1.024975411110622</v>
+        <v>1.023145728476368</v>
       </c>
       <c r="E9">
-        <v>1.011367419395496</v>
+        <v>1.009814247678412</v>
       </c>
       <c r="F9">
-        <v>1.025599977737363</v>
+        <v>1.024737708921583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049616691019338</v>
+        <v>1.048478991560967</v>
       </c>
       <c r="J9">
-        <v>1.030382030125218</v>
+        <v>1.028615904765605</v>
       </c>
       <c r="K9">
-        <v>1.037675871024521</v>
+        <v>1.035874121189256</v>
       </c>
       <c r="L9">
-        <v>1.02427872160578</v>
+        <v>1.02275007735881</v>
       </c>
       <c r="M9">
-        <v>1.038290931807516</v>
+        <v>1.037441790521226</v>
       </c>
       <c r="N9">
-        <v>1.031845290794466</v>
+        <v>1.02581893641348</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038877092684667</v>
+        <v>1.038205052456826</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037730154467686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03646692629487</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021775109195183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9992466878970496</v>
+        <v>0.9979756172102915</v>
       </c>
       <c r="D10">
-        <v>1.021196804559269</v>
+        <v>1.019895636577776</v>
       </c>
       <c r="E10">
-        <v>1.006923838123401</v>
+        <v>1.005863407610544</v>
       </c>
       <c r="F10">
-        <v>1.021493460184837</v>
+        <v>1.020890703901453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047968800005696</v>
+        <v>1.047168699083161</v>
       </c>
       <c r="J10">
-        <v>1.027490225790274</v>
+        <v>1.026269784446705</v>
       </c>
       <c r="K10">
-        <v>1.035193607965834</v>
+        <v>1.033914726475077</v>
       </c>
       <c r="L10">
-        <v>1.021169195796431</v>
+        <v>1.020127597319558</v>
       </c>
       <c r="M10">
-        <v>1.035485192722115</v>
+        <v>1.034892743617183</v>
       </c>
       <c r="N10">
-        <v>1.028949379765673</v>
+        <v>1.024736000576291</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03670807896479</v>
+        <v>1.036239221955315</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03599183734116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035100002923854</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021398496809085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9971930364434921</v>
+        <v>0.9962025403899684</v>
       </c>
       <c r="D11">
-        <v>1.01992801653075</v>
+        <v>1.018869209602226</v>
       </c>
       <c r="E11">
-        <v>1.005416892529354</v>
+        <v>1.004604172045734</v>
       </c>
       <c r="F11">
-        <v>1.021384746233228</v>
+        <v>1.020914237677012</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047591712635717</v>
+        <v>1.046953192268164</v>
       </c>
       <c r="J11">
-        <v>1.026683056413971</v>
+        <v>1.025734155912938</v>
       </c>
       <c r="K11">
-        <v>1.03448365690454</v>
+        <v>1.033443842521129</v>
       </c>
       <c r="L11">
-        <v>1.020237372127354</v>
+        <v>1.019439779639079</v>
       </c>
       <c r="M11">
-        <v>1.035914339804488</v>
+        <v>1.035452233541758</v>
       </c>
       <c r="N11">
-        <v>1.028141064116271</v>
+        <v>1.024879374497823</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037484409278306</v>
+        <v>1.037118888737521</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035522691017166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034803128789321</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021360482127605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.996572467648517</v>
+        <v>0.9956580920362429</v>
       </c>
       <c r="D12">
-        <v>1.01956542524217</v>
+        <v>1.018570946460253</v>
       </c>
       <c r="E12">
-        <v>1.004991077268784</v>
+        <v>1.004242890900238</v>
       </c>
       <c r="F12">
-        <v>1.021913225244162</v>
+        <v>1.021479686052157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047556700326364</v>
+        <v>1.046961944802905</v>
       </c>
       <c r="J12">
-        <v>1.026522598520175</v>
+        <v>1.025647352757743</v>
       </c>
       <c r="K12">
-        <v>1.034327143014271</v>
+        <v>1.033350800208752</v>
       </c>
       <c r="L12">
-        <v>1.020023276763518</v>
+        <v>1.01928925277157</v>
       </c>
       <c r="M12">
-        <v>1.036632309085912</v>
+        <v>1.03620662338554</v>
       </c>
       <c r="N12">
-        <v>1.027980378353861</v>
+        <v>1.025023462256159</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038378839127212</v>
+        <v>1.038042240944992</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03541203078714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034737346216144</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021373530777478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9970263637576109</v>
+        <v>0.996023782037187</v>
       </c>
       <c r="D13">
-        <v>1.019892041529228</v>
+        <v>1.018820995544601</v>
       </c>
       <c r="E13">
-        <v>1.005378636263043</v>
+        <v>1.004548159056964</v>
       </c>
       <c r="F13">
-        <v>1.022993318819125</v>
+        <v>1.022521063736239</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047796929932535</v>
+        <v>1.047152378709694</v>
       </c>
       <c r="J13">
-        <v>1.026864025021951</v>
+        <v>1.025904140634697</v>
       </c>
       <c r="K13">
-        <v>1.034605023845345</v>
+        <v>1.033553430560907</v>
       </c>
       <c r="L13">
-        <v>1.020359820258144</v>
+        <v>1.019544996233814</v>
       </c>
       <c r="M13">
-        <v>1.037650273236017</v>
+        <v>1.037186521435819</v>
       </c>
       <c r="N13">
-        <v>1.028322289720433</v>
+        <v>1.025124883168834</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039460388390316</v>
+        <v>1.039093782691044</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035606010529217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034877874378212</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02143209793448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9978269793470794</v>
+        <v>0.9966930913265857</v>
       </c>
       <c r="D14">
-        <v>1.020430876136264</v>
+        <v>1.019246447073146</v>
       </c>
       <c r="E14">
-        <v>1.006014960094761</v>
+        <v>1.00506539222669</v>
       </c>
       <c r="F14">
-        <v>1.02398607812758</v>
+        <v>1.02345485747304</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04808638625197</v>
+        <v>1.047367305318347</v>
       </c>
       <c r="J14">
-        <v>1.027326222473934</v>
+        <v>1.026239943314769</v>
       </c>
       <c r="K14">
-        <v>1.034993991972307</v>
+        <v>1.033830812715563</v>
       </c>
       <c r="L14">
-        <v>1.020841148850678</v>
+        <v>1.019909255113825</v>
       </c>
       <c r="M14">
-        <v>1.038485793269212</v>
+        <v>1.037964009663457</v>
       </c>
       <c r="N14">
-        <v>1.028785143545811</v>
+        <v>1.025178009292539</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040294120209419</v>
+        <v>1.039881694732204</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035882446812278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035075551812891</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021494862608124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9982650332270626</v>
+        <v>0.9970646053459555</v>
       </c>
       <c r="D15">
-        <v>1.020722079399456</v>
+        <v>1.019480121234403</v>
       </c>
       <c r="E15">
-        <v>1.006355802795756</v>
+        <v>1.005346723267883</v>
       </c>
       <c r="F15">
-        <v>1.024381197404583</v>
+        <v>1.023819807849922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048225269505328</v>
+        <v>1.047468258011321</v>
       </c>
       <c r="J15">
-        <v>1.027558640428521</v>
+        <v>1.026408180642385</v>
       </c>
       <c r="K15">
-        <v>1.035193691716425</v>
+        <v>1.033973848630907</v>
       </c>
       <c r="L15">
-        <v>1.021087578047296</v>
+        <v>1.020097136565966</v>
       </c>
       <c r="M15">
-        <v>1.038788057324007</v>
+        <v>1.038236563244279</v>
       </c>
       <c r="N15">
-        <v>1.029017891560553</v>
+        <v>1.02519233848269</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040570550635487</v>
+        <v>1.04013465301689</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036029506712584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03518312291807</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021523867874866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000611491510581</v>
+        <v>0.9990880545560773</v>
       </c>
       <c r="D16">
-        <v>1.022257676400744</v>
+        <v>1.020733211018301</v>
       </c>
       <c r="E16">
-        <v>1.008153462026903</v>
+        <v>1.006859146427013</v>
       </c>
       <c r="F16">
-        <v>1.025960026346705</v>
+        <v>1.025250685200923</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048892162539198</v>
+        <v>1.047949072406485</v>
       </c>
       <c r="J16">
-        <v>1.028724161512629</v>
+        <v>1.027260999882948</v>
       </c>
       <c r="K16">
-        <v>1.036200830331086</v>
+        <v>1.034702337332131</v>
       </c>
       <c r="L16">
-        <v>1.02234079738844</v>
+        <v>1.02106933430605</v>
       </c>
       <c r="M16">
-        <v>1.039840517654481</v>
+        <v>1.039143136961104</v>
       </c>
       <c r="N16">
-        <v>1.030185067818287</v>
+        <v>1.025266743747562</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04136371372165</v>
+        <v>1.040812492532646</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036744752135727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035701658269117</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021655746488255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001997969930497</v>
+        <v>1.000308120192677</v>
       </c>
       <c r="D17">
-        <v>1.023158779532434</v>
+        <v>1.021485357804972</v>
       </c>
       <c r="E17">
-        <v>1.009205635409258</v>
+        <v>1.00776551982655</v>
       </c>
       <c r="F17">
-        <v>1.026649970412862</v>
+        <v>1.025863445963685</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049252584679335</v>
+        <v>1.048211899264304</v>
       </c>
       <c r="J17">
-        <v>1.029379585027214</v>
+        <v>1.02775446294327</v>
       </c>
       <c r="K17">
-        <v>1.036772580752745</v>
+        <v>1.03512687390295</v>
       </c>
       <c r="L17">
-        <v>1.023054159033459</v>
+        <v>1.021638747696034</v>
       </c>
       <c r="M17">
-        <v>1.040206325187132</v>
+        <v>1.039432698871944</v>
       </c>
       <c r="N17">
-        <v>1.030841422109441</v>
+        <v>1.025355841066943</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041523876109205</v>
+        <v>1.040912328329352</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037151585108007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036004657642239</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021726115364218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002662024483534</v>
+        <v>1.000909537077691</v>
       </c>
       <c r="D18">
-        <v>1.023569010689815</v>
+        <v>1.02183762252801</v>
       </c>
       <c r="E18">
-        <v>1.009687111574344</v>
+        <v>1.008193485269686</v>
       </c>
       <c r="F18">
-        <v>1.026527682877919</v>
+        <v>1.025710419136581</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049358331370632</v>
+        <v>1.048279628501448</v>
       </c>
       <c r="J18">
-        <v>1.029624839593548</v>
+        <v>1.027938227179217</v>
       </c>
       <c r="K18">
-        <v>1.036992946703085</v>
+        <v>1.035289763936554</v>
       </c>
       <c r="L18">
-        <v>1.023340701927398</v>
+        <v>1.021872271532912</v>
       </c>
       <c r="M18">
-        <v>1.039903702899729</v>
+        <v>1.03909963935433</v>
       </c>
       <c r="N18">
-        <v>1.031087024965391</v>
+        <v>1.025376684848153</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041047021648252</v>
+        <v>1.040411281048702</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03729576855741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036107055863361</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021737638029083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002657323273362</v>
+        <v>1.000926307697586</v>
       </c>
       <c r="D19">
-        <v>1.0235298386388</v>
+        <v>1.02181688830806</v>
       </c>
       <c r="E19">
-        <v>1.009639458337193</v>
+        <v>1.008166887652625</v>
       </c>
       <c r="F19">
-        <v>1.025612494743949</v>
+        <v>1.024802210878179</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049224776343441</v>
+        <v>1.048157390240228</v>
       </c>
       <c r="J19">
-        <v>1.029486272129195</v>
+        <v>1.027819942989777</v>
       </c>
       <c r="K19">
-        <v>1.036891977194769</v>
+        <v>1.035206785139564</v>
       </c>
       <c r="L19">
-        <v>1.023230188798362</v>
+        <v>1.021782328152454</v>
       </c>
       <c r="M19">
-        <v>1.038941044204116</v>
+        <v>1.038143807782578</v>
       </c>
       <c r="N19">
-        <v>1.030948260719344</v>
+        <v>1.025287218077382</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039960290949967</v>
+        <v>1.039329742233205</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037230766848624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036055405578463</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021694558094962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000765552932718</v>
+        <v>0.99929214758417</v>
       </c>
       <c r="D20">
-        <v>1.022208944726507</v>
+        <v>1.020728867935067</v>
       </c>
       <c r="E20">
-        <v>1.008098038850039</v>
+        <v>1.006857003359221</v>
       </c>
       <c r="F20">
-        <v>1.022575449754523</v>
+        <v>1.021879263101123</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048419141041249</v>
+        <v>1.04750165715477</v>
       </c>
       <c r="J20">
-        <v>1.028266995662046</v>
+        <v>1.026850383050975</v>
       </c>
       <c r="K20">
-        <v>1.035872203184105</v>
+        <v>1.034416761726439</v>
       </c>
       <c r="L20">
-        <v>1.021999973066452</v>
+        <v>1.020780342782138</v>
       </c>
       <c r="M20">
-        <v>1.036232622054864</v>
+        <v>1.035548001032426</v>
       </c>
       <c r="N20">
-        <v>1.029727252739759</v>
+        <v>1.024866488277822</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037289020130323</v>
+        <v>1.036747212830454</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03651366518939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035501137456978</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021494661116058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.996346840254979</v>
+        <v>0.995557915313306</v>
       </c>
       <c r="D21">
-        <v>1.019299792133794</v>
+        <v>1.018412050404179</v>
       </c>
       <c r="E21">
-        <v>1.004685848983319</v>
+        <v>1.00405938364199</v>
       </c>
       <c r="F21">
-        <v>1.019174781461497</v>
+        <v>1.018794084220278</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047093890785945</v>
+        <v>1.046568100007985</v>
       </c>
       <c r="J21">
-        <v>1.025998096614903</v>
+        <v>1.025242539488816</v>
       </c>
       <c r="K21">
-        <v>1.033924522443188</v>
+        <v>1.03305279975321</v>
       </c>
       <c r="L21">
-        <v>1.019578987017725</v>
+        <v>1.018964255723369</v>
       </c>
       <c r="M21">
-        <v>1.033801765357464</v>
+        <v>1.033427935432447</v>
       </c>
       <c r="N21">
-        <v>1.027455131595723</v>
+        <v>1.024774436668708</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035324201559663</v>
+        <v>1.035028338031992</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035139809057005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034540314940045</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021247163861456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9935360240291209</v>
+        <v>0.9931632886145678</v>
       </c>
       <c r="D22">
-        <v>1.017452488915347</v>
+        <v>1.016927191444487</v>
       </c>
       <c r="E22">
-        <v>1.002525337747899</v>
+        <v>1.002273096334626</v>
       </c>
       <c r="F22">
-        <v>1.017108890007307</v>
+        <v>1.016920751562174</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046251562932363</v>
+        <v>1.045964104618534</v>
       </c>
       <c r="J22">
-        <v>1.024562572764743</v>
+        <v>1.024206512492831</v>
       </c>
       <c r="K22">
-        <v>1.032685959716285</v>
+        <v>1.032170613825083</v>
       </c>
       <c r="L22">
-        <v>1.018046932656183</v>
+        <v>1.017799656837367</v>
       </c>
       <c r="M22">
-        <v>1.032348868651037</v>
+        <v>1.032164296027523</v>
       </c>
       <c r="N22">
-        <v>1.026017569137039</v>
+        <v>1.024665503736193</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034174321959031</v>
+        <v>1.034028243790708</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034250591628382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033901758951416</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021084838694157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9950217089161255</v>
+        <v>0.9944048732404644</v>
       </c>
       <c r="D23">
-        <v>1.018422459367536</v>
+        <v>1.017687754063054</v>
       </c>
       <c r="E23">
-        <v>1.003665008070641</v>
+        <v>1.00319234918302</v>
       </c>
       <c r="F23">
-        <v>1.018202495052432</v>
+        <v>1.017901442505311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046693712169995</v>
+        <v>1.046267628914686</v>
       </c>
       <c r="J23">
-        <v>1.025317216541099</v>
+        <v>1.02472717436502</v>
       </c>
       <c r="K23">
-        <v>1.033333017882305</v>
+        <v>1.032611880107193</v>
       </c>
       <c r="L23">
-        <v>1.01885307135692</v>
+        <v>1.018389477190727</v>
       </c>
       <c r="M23">
-        <v>1.033117112889842</v>
+        <v>1.032821619811692</v>
       </c>
       <c r="N23">
-        <v>1.026773284594116</v>
+        <v>1.024637560355542</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03478234090056</v>
+        <v>1.034548476028082</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034698456747375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034203173745271</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021161426696828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000774220538074</v>
+        <v>0.9993029626449774</v>
       </c>
       <c r="D24">
-        <v>1.022198295783157</v>
+        <v>1.020719829626878</v>
       </c>
       <c r="E24">
-        <v>1.008095657149391</v>
+        <v>1.006856829879408</v>
       </c>
       <c r="F24">
-        <v>1.022451455716007</v>
+        <v>1.02175588725977</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048393748078883</v>
+        <v>1.047477277081817</v>
       </c>
       <c r="J24">
-        <v>1.028242500014699</v>
+        <v>1.026827870877144</v>
       </c>
       <c r="K24">
-        <v>1.035846485052151</v>
+        <v>1.034392596498537</v>
       </c>
       <c r="L24">
-        <v>1.021982080046286</v>
+        <v>1.020764592474316</v>
       </c>
       <c r="M24">
-        <v>1.036095445702137</v>
+        <v>1.0354114213999</v>
       </c>
       <c r="N24">
-        <v>1.029702722305783</v>
+        <v>1.024845932453887</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03713950660026</v>
+        <v>1.036598144482138</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03646809974489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035453970063813</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021483340352359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007230306052469</v>
+        <v>1.005193048116158</v>
       </c>
       <c r="D25">
-        <v>1.026455357398266</v>
+        <v>1.024427480213873</v>
       </c>
       <c r="E25">
-        <v>1.013097806806351</v>
+        <v>1.01136172541356</v>
       </c>
       <c r="F25">
-        <v>1.027256512776965</v>
+        <v>1.026298194730983</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050262729535442</v>
+        <v>1.048998570602062</v>
       </c>
       <c r="J25">
-        <v>1.031516767776314</v>
+        <v>1.02954690050505</v>
       </c>
       <c r="K25">
-        <v>1.038656414210011</v>
+        <v>1.036658066682285</v>
       </c>
       <c r="L25">
-        <v>1.025496142655596</v>
+        <v>1.023786188884046</v>
       </c>
       <c r="M25">
-        <v>1.039445944009867</v>
+        <v>1.038501534833102</v>
       </c>
       <c r="N25">
-        <v>1.032981639903183</v>
+        <v>1.026275000567438</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039791208883338</v>
+        <v>1.039043771215908</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038452000563411</v>
+        <v>1.037052606029825</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021929291906749</v>
       </c>
     </row>
   </sheetData>
